--- a/data/File1.xlsx
+++ b/data/File1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dull/Documents/GitHub/lc-open-refine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB791B36-08FE-7244-9469-85E49033A944}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D583F2-A81A-D446-B7C8-62E4412B31B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="3220" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="items" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$B$11</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -532,7 +532,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -574,60 +574,60 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
